--- a/sputnik/personal/ee/188ee.xlsx
+++ b/sputnik/personal/ee/188ee.xlsx
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,22 +33,25 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>24.11.20018</t>
-  </si>
-  <si>
-    <t>Сняли счетчик с показаниями - 6552, доплатить за 42 квт/ч х 4,57=191,94</t>
-  </si>
-  <si>
-    <t>Новый счетчик Т1-2584 и Т2- 1060</t>
-  </si>
-  <si>
-    <t>доплата</t>
-  </si>
-  <si>
     <t>Т2</t>
   </si>
   <si>
-    <t>переплата</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -65,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -107,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,19 +131,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -158,51 +139,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -212,7 +155,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -222,44 +165,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -567,411 +486,288 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2747</v>
+      </c>
+      <c r="D2" s="2">
+        <v>163</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F2" s="5">
+        <f>PRODUCT(D2,E2)</f>
+        <v>731.87</v>
+      </c>
+      <c r="G2" s="14">
+        <f>SUM(F2,F3)</f>
+        <v>872.81</v>
+      </c>
+      <c r="H2" s="14">
+        <v>883.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43379</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="2">
+        <v>1118</v>
+      </c>
+      <c r="D3" s="2">
+        <v>58</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F3" s="5">
+        <f>PRODUCT(D3,E3)</f>
+        <v>140.94</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>6180</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43400</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>6340</v>
-      </c>
-      <c r="D3" s="3">
-        <f>SUM(C3,-C2)</f>
-        <v>160</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F3" s="20">
-        <f>PRODUCT(D3,E3)</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>6510</v>
-      </c>
-      <c r="D4" s="3">
-        <f>SUM(C4,-C3)</f>
-        <v>170</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="20">
-        <f>PRODUCT(D4,E4)</f>
-        <v>765</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43583</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43609</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F7" s="20">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43661</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2747</v>
-      </c>
-      <c r="D8" s="3">
-        <v>163</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="C4" s="2">
+        <v>3029</v>
+      </c>
+      <c r="D4" s="2">
+        <f>SUM(C4-C2)</f>
+        <v>282</v>
+      </c>
+      <c r="E4" s="5">
         <v>4.49</v>
       </c>
-      <c r="F8" s="6">
-        <f>PRODUCT(D8,E8)</f>
-        <v>731.87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1118</v>
-      </c>
-      <c r="D9" s="3">
-        <v>58</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F9" si="0">PRODUCT(D4,E4)</f>
+        <v>1266.18</v>
+      </c>
+      <c r="G4" s="14">
+        <f>SUM(F4,F5)</f>
+        <v>1482.45</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1482.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1207</v>
+      </c>
+      <c r="D5" s="2">
+        <f>SUM(C5-C3)</f>
+        <v>89</v>
+      </c>
+      <c r="E5" s="7">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="6">
-        <f>PRODUCT(D9,E9)</f>
-        <v>140.94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6">
-        <v>10.72</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43700</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3029</v>
-      </c>
-      <c r="D11" s="3">
-        <f>SUM(C11-C8)</f>
-        <v>282</v>
-      </c>
-      <c r="E11" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" ref="F11:F16" si="0">PRODUCT(D11,E11)</f>
-        <v>1266.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1207</v>
-      </c>
-      <c r="D12" s="3">
-        <f>SUM(C12-C9)</f>
-        <v>89</v>
-      </c>
-      <c r="E12" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>216.27</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>43731</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C6" s="2">
         <v>3259</v>
       </c>
-      <c r="D13" s="3">
-        <f>SUM(C13-C11)</f>
+      <c r="D6" s="2">
+        <f>SUM(C6-C4)</f>
         <v>230</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E6" s="5">
         <v>4.49</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>1032.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="G6" s="14">
+        <f>SUM(F6,F7)</f>
+        <v>1227.1000000000001</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
         <v>1287</v>
       </c>
-      <c r="D14" s="3">
-        <f>SUM(C14-C12)</f>
+      <c r="D7" s="2">
+        <f>SUM(C7-C5)</f>
         <v>80</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E7" s="7">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>194.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>43760</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C8" s="2">
         <v>3463</v>
       </c>
-      <c r="D15" s="3">
-        <f>SUM(C15-C13)</f>
+      <c r="D8" s="2">
+        <f>SUM(C8-C6)</f>
         <v>204</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E8" s="5">
         <v>4.49</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>915.96</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="G8" s="14">
+        <f>SUM(F8,F9)</f>
+        <v>1035.03</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1035.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
         <v>1336</v>
       </c>
-      <c r="D16" s="3">
-        <f>SUM(C16-C14)</f>
+      <c r="D9" s="2">
+        <f>SUM(C9-C7)</f>
         <v>49</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E9" s="7">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>119.07000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14">
+        <f>SUM(G2:G9)</f>
+        <v>4617.3900000000003</v>
+      </c>
+      <c r="H10" s="14">
+        <f>SUM(H2:H9)</f>
+        <v>4627.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
+        <f>SUM(H10,-G10)</f>
+        <v>10.559999999999491</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/188ee.xlsx
+++ b/sputnik/personal/ee/188ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -592,14 +592,14 @@
         <v>3029</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4-C2)</f>
+        <f t="shared" ref="D4:D11" si="0">SUM(C4-C2)</f>
         <v>282</v>
       </c>
       <c r="E4" s="5">
         <v>4.49</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F9" si="0">PRODUCT(D4,E4)</f>
+        <f t="shared" ref="F4:F9" si="1">PRODUCT(D4,E4)</f>
         <v>1266.18</v>
       </c>
       <c r="G4" s="14">
@@ -619,14 +619,14 @@
         <v>1207</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5-C3)</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="E5" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>216.27</v>
       </c>
       <c r="G5" s="14"/>
@@ -643,14 +643,14 @@
         <v>3259</v>
       </c>
       <c r="D6" s="2">
-        <f>SUM(C6-C4)</f>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="E6" s="5">
         <v>4.49</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1032.7</v>
       </c>
       <c r="G6" s="14">
@@ -670,14 +670,14 @@
         <v>1287</v>
       </c>
       <c r="D7" s="2">
-        <f>SUM(C7-C5)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E7" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>194.4</v>
       </c>
       <c r="G7" s="14"/>
@@ -694,14 +694,14 @@
         <v>3463</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(C8-C6)</f>
+        <f t="shared" si="0"/>
         <v>204</v>
       </c>
       <c r="E8" s="5">
         <v>4.49</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>915.96</v>
       </c>
       <c r="G8" s="14">
@@ -721,49 +721,100 @@
         <v>1336</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(C9-C7)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="E9" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119.07000000000001</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="5" t="s">
+      <c r="A10" s="3">
+        <v>44301</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4002</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>539</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="2">PRODUCT(D10,E10)</f>
+        <v>2538.69</v>
+      </c>
+      <c r="G10" s="14">
+        <f>SUM(F10,F11)</f>
+        <v>2882.94</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2882.94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1471</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>344.25</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="14">
-        <f>SUM(G2:G9)</f>
-        <v>4617.3900000000003</v>
-      </c>
-      <c r="H10" s="14">
-        <f>SUM(H2:H9)</f>
-        <v>4627.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="11" t="s">
+      <c r="G12" s="14">
+        <f>SUM(G2:G11)</f>
+        <v>7500.33</v>
+      </c>
+      <c r="H12" s="14">
+        <f>SUM(H2:H11)</f>
+        <v>7510.8899999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14">
-        <f>SUM(H10,-G10)</f>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
+        <f>SUM(H12,-G12)</f>
         <v>10.559999999999491</v>
       </c>
     </row>

--- a/sputnik/personal/ee/188ee.xlsx
+++ b/sputnik/personal/ee/188ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -786,35 +786,86 @@
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="5" t="s">
+      <c r="A12" s="3">
+        <v>44343</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4602</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="3">SUM(C12-C10)</f>
+        <v>600</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="4">PRODUCT(D12,E12)</f>
+        <v>2826</v>
+      </c>
+      <c r="G12" s="14">
+        <f>SUM(F12,F13)</f>
+        <v>3336</v>
+      </c>
+      <c r="H12" s="14">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1671</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="4"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G14" s="14">
         <f>SUM(G2:G11)</f>
         <v>7500.33</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H14" s="14">
         <f>SUM(H2:H11)</f>
         <v>7510.8899999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="11" t="s">
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
+        <f>SUM(H14,-G14)</f>
         <v>10.559999999999491</v>
       </c>
     </row>

--- a/sputnik/personal/ee/188ee.xlsx
+++ b/sputnik/personal/ee/188ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -837,35 +837,86 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="5" t="s">
+      <c r="A14" s="3">
+        <v>44378</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5441</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="5">SUM(C14-C12)</f>
+        <v>839</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="6">PRODUCT(D14,E14)</f>
+        <v>3951.69</v>
+      </c>
+      <c r="G14" s="14">
+        <f>SUM(F14,F15)</f>
+        <v>4905.3900000000003</v>
+      </c>
+      <c r="H14" s="14">
+        <v>4905.3900000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2045</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="5"/>
+        <v>374</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="6"/>
+        <v>953.69999999999993</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G16" s="14">
         <f>SUM(G2:G11)</f>
         <v>7500.33</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H16" s="14">
         <f>SUM(H2:H11)</f>
         <v>7510.8899999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="11" t="s">
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14">
-        <f>SUM(H14,-G14)</f>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14">
+        <f>SUM(H16,-G16)</f>
         <v>10.559999999999491</v>
       </c>
     </row>

--- a/sputnik/personal/ee/188ee.xlsx
+++ b/sputnik/personal/ee/188ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -888,36 +888,87 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="5" t="s">
+      <c r="A16" s="3">
+        <v>44459</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5853</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="7">SUM(C16-C14)</f>
+        <v>412</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="8">PRODUCT(D16,E16)</f>
+        <v>2043.52</v>
+      </c>
+      <c r="G16" s="14">
+        <f>SUM(F16,F17)</f>
+        <v>2453.56</v>
+      </c>
+      <c r="H16" s="14">
+        <v>2330.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2198</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="7"/>
+        <v>153</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="8"/>
+        <v>410.04</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="14">
-        <f>SUM(G2:G11)</f>
-        <v>7500.33</v>
-      </c>
-      <c r="H16" s="14">
-        <f>SUM(H2:H11)</f>
-        <v>7510.8899999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="11" t="s">
+      <c r="G18" s="14">
+        <f>SUM(G2:G17)</f>
+        <v>18195.280000000002</v>
+      </c>
+      <c r="H18" s="14">
+        <f>SUM(H2:H17)</f>
+        <v>18082.949999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14">
-        <f>SUM(H16,-G16)</f>
-        <v>10.559999999999491</v>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14">
+        <f>SUM(H18,-G18)</f>
+        <v>-112.33000000000538</v>
       </c>
     </row>
   </sheetData>
